--- a/biology/Botanique/Plante_tinctoriale/Plante_tinctoriale.xlsx
+++ b/biology/Botanique/Plante_tinctoriale/Plante_tinctoriale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une plante tinctoriale est une plante dont certaines parties peuvent servir à préparer des colorants et des teintures. Celles-ci sont utilisées généralement pour teindre des fibres textiles naturelles (laine, coton, soie…) mais peuvent aussi servir comme colorants alimentaires ou corporels (maquillage ou peintures rituelles).
 Des centaines d'espèces de plantes ont été utilisées par l'homme pour teindre les vêtements, certaines depuis la plus haute Antiquité, mais leur usage a presque totalement cessé depuis le début du XXe siècle, avec l'apparition des colorants de synthèse. 
